--- a/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="192">
   <si>
     <t>土地坐落</t>
   </si>
@@ -332,6 +332,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>佳福公司</t>
   </si>
   <si>
@@ -432,6 +441,9 @@
   </si>
   <si>
     <t>23，500</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
   </si>
   <si>
     <t>名稱</t>
@@ -2250,13 +2262,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>97</v>
       </c>
@@ -2275,13 +2287,22 @@
       <c r="G1" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
@@ -2298,13 +2319,22 @@
       <c r="G2" s="2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
@@ -2321,13 +2351,22 @@
       <c r="G3" s="2">
         <v>9070</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
@@ -2344,13 +2383,22 @@
       <c r="G4" s="2">
         <v>1960</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
@@ -2367,13 +2415,22 @@
       <c r="G5" s="2">
         <v>10380</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
@@ -2390,13 +2447,22 @@
       <c r="G6" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
@@ -2413,13 +2479,22 @@
       <c r="G7" s="2">
         <v>67470</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>40</v>
@@ -2436,13 +2511,22 @@
       <c r="G8" s="2">
         <v>525000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>40</v>
@@ -2459,13 +2543,22 @@
       <c r="G9" s="2">
         <v>57340</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>40</v>
@@ -2482,13 +2575,22 @@
       <c r="G10" s="2">
         <v>620</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>40</v>
@@ -2505,13 +2607,22 @@
       <c r="G11" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
@@ -2528,13 +2639,22 @@
       <c r="G12" s="2">
         <v>140260</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>40</v>
@@ -2551,13 +2671,22 @@
       <c r="G13" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>119</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>40</v>
@@ -2574,13 +2703,22 @@
       <c r="G14" s="2">
         <v>89870</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>40</v>
@@ -2597,13 +2735,22 @@
       <c r="G15" s="2">
         <v>104540</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>40</v>
@@ -2620,13 +2767,22 @@
       <c r="G16" s="2">
         <v>27830</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>40</v>
@@ -2643,13 +2799,22 @@
       <c r="G17" s="2">
         <v>191540</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>40</v>
@@ -2666,13 +2831,22 @@
       <c r="G18" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>39</v>
@@ -2689,13 +2863,22 @@
       <c r="G19" s="2">
         <v>214000</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>39</v>
@@ -2712,13 +2895,22 @@
       <c r="G20" s="2">
         <v>206000</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>126</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>39</v>
@@ -2735,13 +2927,22 @@
       <c r="G21" s="2">
         <v>127810</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>39</v>
@@ -2758,13 +2959,22 @@
       <c r="G22" s="2">
         <v>266200</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>39</v>
@@ -2781,13 +2991,22 @@
       <c r="G23" s="2">
         <v>1090</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>39</v>
@@ -2804,19 +3023,28 @@
       <c r="G24" s="2">
         <v>263520</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
@@ -2827,13 +3055,22 @@
       <c r="G25" s="2">
         <v>532660</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>131</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>39</v>
@@ -2850,13 +3087,22 @@
       <c r="G26" s="2">
         <v>465540</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>39</v>
@@ -2873,13 +3119,22 @@
       <c r="G27" s="2">
         <v>263830</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>134</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>39</v>
@@ -2896,13 +3151,22 @@
       <c r="G28" s="2">
         <v>12110</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>135</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>39</v>
@@ -2919,13 +3183,22 @@
       <c r="G29" s="2">
         <v>24250</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>136</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>39</v>
@@ -2942,13 +3215,22 @@
       <c r="G30" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>137</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>39</v>
@@ -2965,13 +3247,22 @@
       <c r="G31" s="2">
         <v>121000</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>138</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>39</v>
@@ -2988,13 +3279,22 @@
       <c r="G32" s="2">
         <v>470000</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>139</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>39</v>
@@ -3009,7 +3309,16 @@
         <v>94</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="2">
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -3027,22 +3336,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>78</v>
@@ -3053,13 +3362,13 @@
         <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2">
         <v>1668.05</v>
@@ -3079,13 +3388,13 @@
         <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2">
         <v>1355.484</v>
@@ -3105,13 +3414,13 @@
         <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E4" s="2">
         <v>659.81</v>
@@ -3131,13 +3440,13 @@
         <v>152</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E5" s="2">
         <v>271.67</v>
@@ -3157,13 +3466,13 @@
         <v>153</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E6" s="2">
         <v>57.808</v>
@@ -3183,13 +3492,13 @@
         <v>154</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2">
         <v>2357.26</v>
@@ -3209,13 +3518,13 @@
         <v>155</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E8" s="2">
         <v>1194.32</v>
@@ -3235,13 +3544,13 @@
         <v>156</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E9" s="2">
         <v>84.56</v>
@@ -3271,25 +3580,25 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>78</v>
@@ -3300,17 +3609,17 @@
         <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -3321,28 +3630,28 @@
         <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3363,19 +3672,19 @@
         <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3383,22 +3692,22 @@
         <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E2" s="2">
         <v>1276169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3416,22 +3725,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3442,10 +3751,10 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2">
         <v>375000</v>
@@ -3454,7 +3763,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3465,19 +3774,19 @@
         <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E3" s="2">
         <v>5901610</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="194">
   <si>
     <t>土地坐落</t>
   </si>
@@ -332,6 +332,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -437,10 +440,13 @@
     <t>合晶</t>
   </si>
   <si>
-    <t>53，266</t>
-  </si>
-  <si>
-    <t>23，500</t>
+    <t>53266</t>
+  </si>
+  <si>
+    <t>23500</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-30</t>
@@ -2262,13 +2268,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>97</v>
       </c>
@@ -2296,13 +2302,16 @@
       <c r="J1" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
@@ -2320,21 +2329,24 @@
         <v>1000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="2">
+        <v>142</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
@@ -2352,21 +2364,24 @@
         <v>9070</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2">
+        <v>142</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
@@ -2384,21 +2399,24 @@
         <v>1960</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="2">
+        <v>142</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
@@ -2416,21 +2434,24 @@
         <v>10380</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="2">
+        <v>142</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
@@ -2448,21 +2469,24 @@
         <v>2000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="2">
+        <v>142</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
@@ -2480,21 +2504,24 @@
         <v>67470</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="2">
+        <v>142</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>40</v>
@@ -2512,21 +2539,24 @@
         <v>525000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="2">
+        <v>142</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>40</v>
@@ -2544,21 +2574,24 @@
         <v>57340</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="2">
+        <v>142</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>40</v>
@@ -2576,21 +2609,24 @@
         <v>620</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="2">
+        <v>142</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>40</v>
@@ -2608,21 +2644,24 @@
         <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="2">
+        <v>142</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
@@ -2640,21 +2679,24 @@
         <v>140260</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="2">
+        <v>142</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>40</v>
@@ -2672,21 +2714,24 @@
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="2">
+        <v>142</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>119</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>40</v>
@@ -2704,21 +2749,24 @@
         <v>89870</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="2">
+        <v>142</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>40</v>
@@ -2736,21 +2784,24 @@
         <v>104540</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="2">
+        <v>142</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>40</v>
@@ -2768,21 +2819,24 @@
         <v>27830</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="2">
+        <v>142</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>40</v>
@@ -2800,21 +2854,24 @@
         <v>191540</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="2">
+        <v>142</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>40</v>
@@ -2832,21 +2889,24 @@
         <v>50000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="2">
+        <v>142</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>39</v>
@@ -2864,21 +2924,24 @@
         <v>214000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="2">
+        <v>142</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>39</v>
@@ -2896,21 +2959,24 @@
         <v>206000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="2">
+        <v>142</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>126</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>39</v>
@@ -2928,21 +2994,24 @@
         <v>127810</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="2">
+        <v>142</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>39</v>
@@ -2960,21 +3029,24 @@
         <v>266200</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="2">
+        <v>142</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>39</v>
@@ -2992,21 +3064,24 @@
         <v>1090</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="2">
+        <v>142</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>39</v>
@@ -3024,27 +3099,30 @@
         <v>263520</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="2">
+        <v>142</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
@@ -3056,21 +3134,24 @@
         <v>532660</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="2">
+        <v>142</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>131</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>39</v>
@@ -3088,21 +3169,24 @@
         <v>465540</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="2">
+        <v>142</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>39</v>
@@ -3120,21 +3204,24 @@
         <v>263830</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" s="2">
+        <v>142</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>134</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>39</v>
@@ -3152,21 +3239,24 @@
         <v>12110</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" s="2">
+        <v>142</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>135</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>39</v>
@@ -3184,21 +3274,24 @@
         <v>24250</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="2">
+        <v>142</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>136</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>39</v>
@@ -3216,21 +3309,24 @@
         <v>200000</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="2">
+        <v>142</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>137</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>39</v>
@@ -3248,21 +3344,24 @@
         <v>121000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J31" s="2">
+        <v>142</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>138</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>39</v>
@@ -3280,21 +3379,24 @@
         <v>470000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J32" s="2">
+        <v>142</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>139</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>39</v>
@@ -3309,15 +3411,18 @@
         <v>94</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J33" s="2">
+        <v>142</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" s="2">
         <v>726</v>
       </c>
     </row>
@@ -3336,22 +3441,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>78</v>
@@ -3362,13 +3467,13 @@
         <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E2" s="2">
         <v>1668.05</v>
@@ -3388,13 +3493,13 @@
         <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E3" s="2">
         <v>1355.484</v>
@@ -3414,13 +3519,13 @@
         <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E4" s="2">
         <v>659.81</v>
@@ -3440,13 +3545,13 @@
         <v>152</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E5" s="2">
         <v>271.67</v>
@@ -3466,13 +3571,13 @@
         <v>153</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E6" s="2">
         <v>57.808</v>
@@ -3492,13 +3597,13 @@
         <v>154</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E7" s="2">
         <v>2357.26</v>
@@ -3518,13 +3623,13 @@
         <v>155</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E8" s="2">
         <v>1194.32</v>
@@ -3544,13 +3649,13 @@
         <v>156</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E9" s="2">
         <v>84.56</v>
@@ -3580,25 +3685,25 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>78</v>
@@ -3609,17 +3714,17 @@
         <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -3630,28 +3735,28 @@
         <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3672,19 +3777,19 @@
         <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3692,22 +3797,22 @@
         <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="2">
         <v>1276169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3725,22 +3830,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3751,10 +3856,10 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E2" s="2">
         <v>375000</v>
@@ -3763,7 +3868,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3774,19 +3879,19 @@
         <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E3" s="2">
         <v>5901610</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="199">
   <si>
     <t>土地坐落</t>
   </si>
@@ -335,6 +335,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -344,6 +347,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>佳福公司</t>
   </si>
   <si>
@@ -449,7 +458,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmpf37d1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -2268,13 +2283,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>97</v>
       </c>
@@ -2305,13 +2320,22 @@
       <c r="K1" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
@@ -2329,24 +2353,33 @@
         <v>1000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="2">
+        <v>146</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
@@ -2364,24 +2397,33 @@
         <v>9070</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="2">
+        <v>146</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N3" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
@@ -2399,24 +2441,33 @@
         <v>1960</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="2">
+        <v>146</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
@@ -2434,24 +2485,33 @@
         <v>10380</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="2">
+        <v>146</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N5" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
@@ -2469,24 +2529,33 @@
         <v>2000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="2">
+        <v>146</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N6" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
@@ -2504,24 +2573,33 @@
         <v>67470</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="2">
+        <v>146</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N7" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>40</v>
@@ -2539,24 +2617,33 @@
         <v>525000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="2">
+        <v>146</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N8" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>40</v>
@@ -2574,24 +2661,33 @@
         <v>57340</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="2">
+        <v>146</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N9" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>40</v>
@@ -2609,24 +2705,33 @@
         <v>620</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="2">
+        <v>146</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N10" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>40</v>
@@ -2644,24 +2749,33 @@
         <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="2">
+        <v>146</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N11" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
@@ -2679,24 +2793,33 @@
         <v>140260</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="2">
+        <v>146</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N12" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>40</v>
@@ -2714,24 +2837,33 @@
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="2">
+        <v>146</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N13" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>119</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>40</v>
@@ -2749,24 +2881,33 @@
         <v>89870</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="2">
+        <v>146</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N14" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>40</v>
@@ -2784,24 +2925,33 @@
         <v>104540</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="2">
+        <v>146</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N15" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>40</v>
@@ -2819,24 +2969,33 @@
         <v>27830</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="2">
+        <v>146</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N16" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>40</v>
@@ -2854,24 +3013,33 @@
         <v>191540</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="2">
+        <v>146</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N17" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>40</v>
@@ -2889,24 +3057,33 @@
         <v>50000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="2">
+        <v>146</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N18" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>39</v>
@@ -2924,24 +3101,33 @@
         <v>214000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="2">
+        <v>146</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>39</v>
@@ -2959,24 +3145,33 @@
         <v>206000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="2">
+        <v>146</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N20" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>126</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>39</v>
@@ -2994,24 +3189,33 @@
         <v>127810</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="2">
+        <v>146</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N21" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>39</v>
@@ -3029,24 +3233,33 @@
         <v>266200</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="2">
+        <v>146</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N22" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>39</v>
@@ -3064,24 +3277,33 @@
         <v>1090</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="2">
+        <v>146</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N23" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>39</v>
@@ -3099,30 +3321,39 @@
         <v>263520</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="2">
+        <v>146</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N24" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
@@ -3134,24 +3365,33 @@
         <v>532660</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" s="2">
+        <v>146</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N25" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>131</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>39</v>
@@ -3169,24 +3409,33 @@
         <v>465540</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" s="2">
+        <v>146</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="M26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N26" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>39</v>
@@ -3204,24 +3453,33 @@
         <v>263830</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="2">
+        <v>146</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="M27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N27" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>134</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>39</v>
@@ -3239,24 +3497,33 @@
         <v>12110</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28" s="2">
+        <v>146</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="M28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N28" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>135</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>39</v>
@@ -3274,24 +3541,33 @@
         <v>24250</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="2">
+        <v>146</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="M29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N29" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>136</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>39</v>
@@ -3309,24 +3585,33 @@
         <v>200000</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="2">
+        <v>146</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="M30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N30" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>137</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>39</v>
@@ -3344,24 +3629,33 @@
         <v>121000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="2">
+        <v>146</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="M31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N31" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>138</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>39</v>
@@ -3379,24 +3673,33 @@
         <v>470000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32" s="2">
+        <v>146</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="M32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N32" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>139</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>39</v>
@@ -3411,19 +3714,28 @@
         <v>94</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="2">
+        <v>146</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="2">
         <v>726</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N33" s="2">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3441,22 +3753,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>78</v>
@@ -3467,13 +3779,13 @@
         <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E2" s="2">
         <v>1668.05</v>
@@ -3493,13 +3805,13 @@
         <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E3" s="2">
         <v>1355.484</v>
@@ -3519,13 +3831,13 @@
         <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E4" s="2">
         <v>659.81</v>
@@ -3545,13 +3857,13 @@
         <v>152</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E5" s="2">
         <v>271.67</v>
@@ -3571,13 +3883,13 @@
         <v>153</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E6" s="2">
         <v>57.808</v>
@@ -3597,13 +3909,13 @@
         <v>154</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E7" s="2">
         <v>2357.26</v>
@@ -3623,13 +3935,13 @@
         <v>155</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E8" s="2">
         <v>1194.32</v>
@@ -3649,13 +3961,13 @@
         <v>156</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E9" s="2">
         <v>84.56</v>
@@ -3685,25 +3997,25 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>78</v>
@@ -3714,17 +4026,17 @@
         <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -3735,28 +4047,28 @@
         <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3777,19 +4089,19 @@
         <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3797,22 +4109,22 @@
         <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E2" s="2">
         <v>1276169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3830,22 +4142,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3856,10 +4168,10 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E2" s="2">
         <v>375000</v>
@@ -3868,7 +4180,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3879,19 +4191,19 @@
         <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E3" s="2">
         <v>5901610</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
@@ -21,9 +21,207 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="199">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="202">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>基隆市中山區仁德段06880000地號</t>
+  </si>
+  <si>
+    <t>基隆市中山區仁德段06880001地號</t>
+  </si>
+  <si>
+    <t>基隆市中山區仁德段06880002地號</t>
+  </si>
+  <si>
+    <t>新北市萬里區萬里段00960000地號</t>
+  </si>
+  <si>
+    <t>基隆市安樂區新城段08190000地號</t>
+  </si>
+  <si>
+    <t>基隆市安樂區新城段08290000地號</t>
+  </si>
+  <si>
+    <t>基隆市安樂區新城段08300000地號</t>
+  </si>
+  <si>
+    <t>基隆市安樂區新城段08440000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃園市慈文段14800000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃園市慈文段15320000地號</t>
+  </si>
+  <si>
+    <t>基隆市暖暖區暖暖段暖暖小段04400000地號</t>
+  </si>
+  <si>
+    <t>基隆市中正區祥豐段01810000地號</t>
+  </si>
+  <si>
+    <t>臺北市大同區大同段一小段◦0180000地號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段13820014</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段13820016地號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段13820017地號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段13820018地號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段13820022地號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段13820024地號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段13820025地號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段13820029地號</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>10000分之22</t>
+  </si>
+  <si>
+    <t>120分之4</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之169</t>
+  </si>
+  <si>
+    <t>70分之10</t>
+  </si>
+  <si>
+    <t>10000分之115</t>
+  </si>
+  <si>
+    <t>10000分之</t>
+  </si>
+  <si>
+    <t>10000分之329</t>
+  </si>
+  <si>
+    <t>10000分之4</t>
+  </si>
+  <si>
+    <t>10000分之2</t>
+  </si>
+  <si>
+    <t>林水木</t>
+  </si>
+  <si>
+    <t>徐少萍</t>
+  </si>
+  <si>
+    <t>60年</t>
+  </si>
+  <si>
+    <t>78年</t>
+  </si>
+  <si>
+    <t>79年</t>
+  </si>
+  <si>
+    <t>76年</t>
+  </si>
+  <si>
+    <t>92年09月17曰</t>
+  </si>
+  <si>
+    <t>95年03月29日</t>
+  </si>
+  <si>
+    <t>99年05月26日</t>
+  </si>
+  <si>
+    <t>99年05月</t>
+  </si>
+  <si>
+    <t>99年05月26曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貿賣</t>
+  </si>
+  <si>
+    <t>(抵債）</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>6000000元(m3938建號建物一併購買）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmpf37d1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,181 +242,34 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>基隆市中山區仁德段0688-0000 地號</t>
-  </si>
-  <si>
-    <t>基隆市中山區仁德段0688-0001 地號</t>
-  </si>
-  <si>
-    <t>基隆市中山區仁德段0688-0002 地號</t>
-  </si>
-  <si>
-    <t>新北市萬里區萬里段0096-0000 地號</t>
-  </si>
-  <si>
-    <t>基隆市安樂區新城段0819-0000 地號</t>
-  </si>
-  <si>
-    <t>基隆市安樂區新城段0829-0000 地號</t>
-  </si>
-  <si>
-    <t>基隆市安樂區新城段0830-0000 地號</t>
-  </si>
-  <si>
-    <t>基隆市安樂區新城段0844-0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃園市慈文段1480-0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃園市慈文段1532 _ 0000 地號</t>
-  </si>
-  <si>
-    <t>基隆市暖暖區暖暖段暖暖小段 0440-0000 地號</t>
-  </si>
-  <si>
-    <t>基隆市中正區祥豐段0181 -0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大同區大同段一小段 ◦018-0000 地號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段1382-0014</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段1382-0016 地號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段1382-0017 地號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段1382-0018 地號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段1382-0022 地號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段1382-0024 地號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段1382-0025 地號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段1382-0029 地號</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>10000分之 22</t>
-  </si>
-  <si>
-    <t>120分之4</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 169</t>
-  </si>
-  <si>
-    <t>70分之10</t>
-  </si>
-  <si>
-    <t>10000分之 115</t>
-  </si>
-  <si>
-    <t>10000分之</t>
-  </si>
-  <si>
-    <t>10000分之 329</t>
-  </si>
-  <si>
-    <t>10000分之 4</t>
-  </si>
-  <si>
-    <t>10000分之 2</t>
-  </si>
-  <si>
-    <t>林水木</t>
-  </si>
-  <si>
-    <t>徐少萍</t>
-  </si>
-  <si>
-    <t>60年</t>
-  </si>
-  <si>
-    <t>78年</t>
-  </si>
-  <si>
-    <t>79年</t>
-  </si>
-  <si>
-    <t>76年</t>
-  </si>
-  <si>
-    <t>92年09月 17曰</t>
-  </si>
-  <si>
-    <t>95年03月 29日</t>
-  </si>
-  <si>
-    <t>99年05月 26日</t>
-  </si>
-  <si>
-    <t>99年05月</t>
-  </si>
-  <si>
-    <t>99年05月 26曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貿賣</t>
-  </si>
-  <si>
-    <t>(抵債）</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>6,000,000 元 (m 3938建號 建物一併購 買）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>基隆市暖暖區暖暖段暖暖小段 01245-000 建號</t>
-  </si>
-  <si>
-    <t>基隆市仁愛區中央段四小段 00480-000 建號</t>
-  </si>
-  <si>
-    <t>基隆市仁愛區中央段四小段 00483-000 建號</t>
-  </si>
-  <si>
-    <t>新北市萬里區萬里段00687-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大同區大同段一小段 03938-000 建號 .</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段07353-000 建號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段07359-000 建號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段07198-000 建號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段07256-000 建號</t>
-  </si>
-  <si>
-    <t>基隆市中正區調和段07348-000 建號</t>
+    <t>基隆市暖暖區暖暖段暖暖小段01245000建號</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區中央段四小段00480000建號</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區中央段四小段00483000建號</t>
+  </si>
+  <si>
+    <t>新北市萬里區萬里段00687000建號</t>
+  </si>
+  <si>
+    <t>臺北市大同區大同段一小段03938000建號.</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段07353000建號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段07359000建號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段07198000建號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段07256000建號</t>
+  </si>
+  <si>
+    <t>基隆市中正區調和段07348000建號</t>
   </si>
   <si>
     <t>422分之2</t>
@@ -230,16 +281,16 @@
     <t>79分之2</t>
   </si>
   <si>
-    <t>91年01月 04日</t>
-  </si>
-  <si>
-    <t>97年01月 10日</t>
+    <t>91年01月04日</t>
+  </si>
+  <si>
+    <t>97年01月10日</t>
   </si>
   <si>
     <t>(抵債)</t>
   </si>
   <si>
-    <t>6,000,000 元 (與18地號土 地一併購買）</t>
+    <t>6000000元(與18地號土地一併購買）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -311,13 +362,7 @@
     <t>美金</t>
   </si>
   <si>
-    <t>1,298，660</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>1298660</t>
   </si>
   <si>
     <t>quantity</t>
@@ -332,27 +377,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>佳福公司</t>
   </si>
   <si>
@@ -458,15 +482,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>tmpf37d1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -482,28 +497,25 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>貝萊德美元儲備 基金</t>
-  </si>
-  <si>
-    <t>天達天然資源基 金</t>
+    <t>貝萊德美元儲備基金</t>
+  </si>
+  <si>
+    <t>天達天然資源基金</t>
   </si>
   <si>
     <t>施羅德能源基金</t>
   </si>
   <si>
-    <t>貝萊德世界礦業 基金</t>
+    <t>貝萊德世界礦業基金</t>
   </si>
   <si>
     <t>瑞銀美小股基金</t>
   </si>
   <si>
-    <t>貝萊德世界黃金 基金</t>
-  </si>
-  <si>
-    <t>貝萊德新興市場 基金</t>
-  </si>
-  <si>
-    <t>台北富邦商業 銀行</t>
+    <t>貝萊德世界黃金基金</t>
+  </si>
+  <si>
+    <t>貝萊德新興市場基金</t>
   </si>
   <si>
     <t>名</t>
@@ -530,13 +542,10 @@
     <t>(九）珠寶</t>
   </si>
   <si>
-    <t>財 產</t>
-  </si>
-  <si>
-    <t>•古董、字畫及其他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>種 類</t>
+    <t>財產</t>
+  </si>
+  <si>
+    <t>古董字畫及其他具有相當價值之財產（總作</t>
   </si>
   <si>
     <t>件</t>
@@ -548,7 +557,7 @@
     <t>所</t>
   </si>
   <si>
-    <t>新臺幣 元）</t>
+    <t>新臺幣元）</t>
   </si>
   <si>
     <t>有</t>
@@ -584,7 +593,7 @@
     <t>基隆市第二信用合作社</t>
   </si>
   <si>
-    <t>92年09月 17日</t>
+    <t>92年09月17日</t>
   </si>
   <si>
     <t>設定抵押</t>
@@ -608,10 +617,10 @@
     <t>鎮洲裝卸股份有限公司</t>
   </si>
   <si>
-    <t>基隆市仁愛區孝三路101號 3樓</t>
-  </si>
-  <si>
-    <t>基隆市中正區港通里中正路 12號7樓</t>
+    <t>基隆市仁愛區孝三路101號3樓</t>
+  </si>
+  <si>
+    <t>基隆市中正區港通里中正路12號7樓</t>
   </si>
   <si>
     <t>86年</t>
@@ -976,13 +985,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,536 +1013,998 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>165</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2">
+        <v>726</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>196</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="2">
+        <v>726</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="2">
+        <v>726</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>10750.88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="2">
+        <v>726</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>144.76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="2">
+        <v>726</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>195.81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="2">
+        <v>726</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>13.15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="2">
+        <v>726</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>57.2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="2">
+        <v>726</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="2">
+        <v>726</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="2">
+        <v>726</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>1593</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="2">
+        <v>726</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>1056</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2">
         <v>9000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="2">
+        <v>726</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>435</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="2">
+        <v>726</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>419.66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="2">
+        <v>726</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>1698.07</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="2">
+        <v>726</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>3293.16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="2">
+        <v>726</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>1242.85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="2">
+        <v>726</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>558.71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="2">
+        <v>726</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>594.14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="2">
+        <v>726</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>408.38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="2">
+        <v>726</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>1966.44</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="2">
+        <v>726</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="2">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1550,25 +2021,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1576,25 +2047,25 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2">
         <v>51.04</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1602,25 +2073,25 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2">
         <v>191.7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1628,25 +2099,25 @@
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2">
         <v>191.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1654,25 +2125,25 @@
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2">
         <v>25788.13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1680,25 +2151,25 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2">
         <v>32.81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1706,22 +2177,22 @@
         <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2">
         <v>103.51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -1730,22 +2201,22 @@
         <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2">
         <v>102.06</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -1754,22 +2225,22 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -1778,22 +2249,22 @@
         <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2">
         <v>6.73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -1802,22 +2273,22 @@
         <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2">
         <v>7.05</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -1836,22 +2307,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1859,16 +2330,16 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1880,16 +2351,16 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1901,16 +2372,16 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1922,20 +2393,20 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1943,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1964,16 +2435,16 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1985,16 +2456,16 @@
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -2006,16 +2477,16 @@
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -2027,16 +2498,16 @@
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -2048,16 +2519,16 @@
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -2069,16 +2540,16 @@
         <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -2090,16 +2561,16 @@
         <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -2111,16 +2582,16 @@
         <v>92</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -2132,16 +2603,16 @@
         <v>93</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -2153,16 +2624,16 @@
         <v>94</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -2174,16 +2645,16 @@
         <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -2195,16 +2666,16 @@
         <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -2216,16 +2687,16 @@
         <v>97</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -2237,16 +2708,16 @@
         <v>99</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -2258,16 +2729,16 @@
         <v>100</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2">
         <v>9641.1</v>
@@ -2291,43 +2762,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2335,10 +2806,10 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2">
         <v>1000</v>
@@ -2347,28 +2818,28 @@
         <v>1000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2">
         <v>1000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2">
         <v>726</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N2" s="2">
         <v>107</v>
@@ -2379,10 +2850,10 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2">
         <v>907</v>
@@ -2391,28 +2862,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2">
         <v>9070</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2">
         <v>726</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N3" s="2">
         <v>108</v>
@@ -2423,10 +2894,10 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2">
         <v>196</v>
@@ -2435,28 +2906,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G4" s="2">
         <v>1960</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L4" s="2">
         <v>726</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N4" s="2">
         <v>109</v>
@@ -2467,10 +2938,10 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2">
         <v>1038</v>
@@ -2479,28 +2950,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G5" s="2">
         <v>10380</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L5" s="2">
         <v>726</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N5" s="2">
         <v>110</v>
@@ -2511,10 +2982,10 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
@@ -2523,28 +2994,28 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G6" s="2">
         <v>2000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L6" s="2">
         <v>726</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N6" s="2">
         <v>111</v>
@@ -2555,10 +3026,10 @@
         <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2">
         <v>6747</v>
@@ -2567,28 +3038,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G7" s="2">
         <v>67470</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L7" s="2">
         <v>726</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N7" s="2">
         <v>112</v>
@@ -2599,10 +3070,10 @@
         <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2">
         <v>52500</v>
@@ -2611,28 +3082,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G8" s="2">
         <v>525000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L8" s="2">
         <v>726</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N8" s="2">
         <v>113</v>
@@ -2643,10 +3114,10 @@
         <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2">
         <v>5734</v>
@@ -2655,28 +3126,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G9" s="2">
         <v>57340</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L9" s="2">
         <v>726</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N9" s="2">
         <v>114</v>
@@ -2687,10 +3158,10 @@
         <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2">
         <v>62</v>
@@ -2699,28 +3170,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G10" s="2">
         <v>620</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L10" s="2">
         <v>726</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N10" s="2">
         <v>115</v>
@@ -2731,10 +3202,10 @@
         <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2">
         <v>5000</v>
@@ -2743,28 +3214,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G11" s="2">
         <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L11" s="2">
         <v>726</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N11" s="2">
         <v>116</v>
@@ -2775,10 +3246,10 @@
         <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2">
         <v>14026</v>
@@ -2787,28 +3258,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G12" s="2">
         <v>140260</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L12" s="2">
         <v>726</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N12" s="2">
         <v>117</v>
@@ -2819,10 +3290,10 @@
         <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2">
         <v>20000</v>
@@ -2831,28 +3302,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L13" s="2">
         <v>726</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N13" s="2">
         <v>118</v>
@@ -2863,10 +3334,10 @@
         <v>119</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2">
         <v>8987</v>
@@ -2875,28 +3346,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G14" s="2">
         <v>89870</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L14" s="2">
         <v>726</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N14" s="2">
         <v>119</v>
@@ -2907,10 +3378,10 @@
         <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2">
         <v>10454</v>
@@ -2919,28 +3390,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G15" s="2">
         <v>104540</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L15" s="2">
         <v>726</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N15" s="2">
         <v>120</v>
@@ -2951,10 +3422,10 @@
         <v>121</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2">
         <v>2783</v>
@@ -2963,28 +3434,28 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G16" s="2">
         <v>27830</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L16" s="2">
         <v>726</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N16" s="2">
         <v>121</v>
@@ -2995,10 +3466,10 @@
         <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2">
         <v>19154</v>
@@ -3007,28 +3478,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G17" s="2">
         <v>191540</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L17" s="2">
         <v>726</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N17" s="2">
         <v>122</v>
@@ -3039,10 +3510,10 @@
         <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2">
         <v>5000</v>
@@ -3051,28 +3522,28 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G18" s="2">
         <v>50000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L18" s="2">
         <v>726</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N18" s="2">
         <v>123</v>
@@ -3083,10 +3554,10 @@
         <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2">
         <v>21400</v>
@@ -3095,28 +3566,28 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G19" s="2">
         <v>214000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L19" s="2">
         <v>726</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N19" s="2">
         <v>124</v>
@@ -3127,10 +3598,10 @@
         <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2">
         <v>20600</v>
@@ -3139,28 +3610,28 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G20" s="2">
         <v>206000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L20" s="2">
         <v>726</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N20" s="2">
         <v>125</v>
@@ -3171,10 +3642,10 @@
         <v>126</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2">
         <v>12781</v>
@@ -3183,28 +3654,28 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G21" s="2">
         <v>127810</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L21" s="2">
         <v>726</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N21" s="2">
         <v>126</v>
@@ -3215,10 +3686,10 @@
         <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D22" s="2">
         <v>26620</v>
@@ -3227,28 +3698,28 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G22" s="2">
         <v>266200</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L22" s="2">
         <v>726</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N22" s="2">
         <v>127</v>
@@ -3259,10 +3730,10 @@
         <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D23" s="2">
         <v>109</v>
@@ -3271,28 +3742,28 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G23" s="2">
         <v>1090</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L23" s="2">
         <v>726</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N23" s="2">
         <v>128</v>
@@ -3303,10 +3774,10 @@
         <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2">
         <v>26352</v>
@@ -3315,28 +3786,28 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G24" s="2">
         <v>263520</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L24" s="2">
         <v>726</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N24" s="2">
         <v>129</v>
@@ -3347,40 +3818,40 @@
         <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G25" s="2">
         <v>532660</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L25" s="2">
         <v>726</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N25" s="2">
         <v>130</v>
@@ -3391,10 +3862,10 @@
         <v>131</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2">
         <v>46554</v>
@@ -3403,28 +3874,28 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G26" s="2">
         <v>465540</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L26" s="2">
         <v>726</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N26" s="2">
         <v>131</v>
@@ -3435,10 +3906,10 @@
         <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2">
         <v>26383</v>
@@ -3447,28 +3918,28 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G27" s="2">
         <v>263830</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L27" s="2">
         <v>726</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N27" s="2">
         <v>132</v>
@@ -3479,10 +3950,10 @@
         <v>134</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2">
         <v>1211</v>
@@ -3491,28 +3962,28 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G28" s="2">
         <v>12110</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L28" s="2">
         <v>726</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N28" s="2">
         <v>134</v>
@@ -3523,10 +3994,10 @@
         <v>135</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2">
         <v>2425</v>
@@ -3535,28 +4006,28 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G29" s="2">
         <v>24250</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L29" s="2">
         <v>726</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N29" s="2">
         <v>135</v>
@@ -3567,10 +4038,10 @@
         <v>136</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2">
         <v>20000</v>
@@ -3579,28 +4050,28 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G30" s="2">
         <v>200000</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L30" s="2">
         <v>726</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N30" s="2">
         <v>136</v>
@@ -3611,10 +4082,10 @@
         <v>137</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2">
         <v>12100</v>
@@ -3623,28 +4094,28 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G31" s="2">
         <v>121000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L31" s="2">
         <v>726</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N31" s="2">
         <v>137</v>
@@ -3655,10 +4126,10 @@
         <v>138</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2">
         <v>47000</v>
@@ -3667,28 +4138,28 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G32" s="2">
         <v>470000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L32" s="2">
         <v>726</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N32" s="2">
         <v>138</v>
@@ -3699,10 +4170,10 @@
         <v>139</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2">
         <v>2350</v>
@@ -3711,28 +4182,28 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L33" s="2">
         <v>726</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="N33" s="2">
         <v>139</v>
@@ -3753,25 +4224,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3779,13 +4250,13 @@
         <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>1668.05</v>
@@ -3794,7 +4265,7 @@
         <v>150.82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="H2" s="2">
         <v>7320481</v>
@@ -3805,13 +4276,13 @@
         <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2">
         <v>1355.484</v>
@@ -3820,7 +4291,7 @@
         <v>10.61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="H3" s="2">
         <v>418507</v>
@@ -3831,13 +4302,13 @@
         <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2">
         <v>659.81</v>
@@ -3846,7 +4317,7 @@
         <v>31.33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="H4" s="2">
         <v>601550</v>
@@ -3857,13 +4328,13 @@
         <v>152</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2">
         <v>271.67</v>
@@ -3872,7 +4343,7 @@
         <v>64.71</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="H5" s="2">
         <v>511571</v>
@@ -3883,13 +4354,13 @@
         <v>153</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2">
         <v>57.808</v>
@@ -3898,7 +4369,7 @@
         <v>504.5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="H6" s="2">
         <v>848676</v>
@@ -3909,13 +4380,13 @@
         <v>154</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2">
         <v>2357.26</v>
@@ -3924,7 +4395,7 @@
         <v>51.82</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="H7" s="2">
         <v>3554659</v>
@@ -3935,13 +4406,13 @@
         <v>155</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2">
         <v>1194.32</v>
@@ -3950,7 +4421,7 @@
         <v>29.44</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="H8" s="2">
         <v>1023179</v>
@@ -3961,13 +4432,13 @@
         <v>156</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2">
         <v>84.56</v>
@@ -3976,7 +4447,7 @@
         <v>64.71</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="H9" s="2">
         <v>159231</v>
@@ -3997,28 +4468,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4026,17 +4497,17 @@
         <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -4047,28 +4518,28 @@
         <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4086,22 +4557,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4109,22 +4580,22 @@
         <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E2" s="2">
         <v>1276169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4142,22 +4613,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4165,22 +4636,22 @@
         <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E2" s="2">
         <v>375000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4188,22 +4659,22 @@
         <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E3" s="2">
         <v>5901610</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="166">
   <si>
     <t>name</t>
   </si>
@@ -65,7 +65,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>基隆市中山區仁德段06880000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>基隆市中山區仁德段06880001地號</t>
@@ -104,7 +107,7 @@
     <t>臺北市大同區大同段一小段◦0180000地號</t>
   </si>
   <si>
-    <t>基隆市中正區調和段13820014</t>
+    <t>基隆市中正區調和段13820014地號</t>
   </si>
   <si>
     <t>基隆市中正區調和段13820016地號</t>
@@ -149,7 +152,7 @@
     <t>10000分之115</t>
   </si>
   <si>
-    <t>10000分之</t>
+    <t>10000分之2</t>
   </si>
   <si>
     <t>10000分之329</t>
@@ -158,9 +161,6 @@
     <t>10000分之4</t>
   </si>
   <si>
-    <t>10000分之2</t>
-  </si>
-  <si>
     <t>林水木</t>
   </si>
   <si>
@@ -188,18 +188,15 @@
     <t>99年05月26日</t>
   </si>
   <si>
-    <t>99年05月</t>
-  </si>
-  <si>
     <t>99年05月26曰</t>
   </si>
   <si>
+    <t>貿賣</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>貿賣</t>
-  </si>
-  <si>
     <t>(抵債）</t>
   </si>
   <si>
@@ -221,27 +218,6 @@
     <t>tmpf37d1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>基隆市暖暖區暖暖段暖暖小段01245000建號</t>
   </si>
   <si>
@@ -293,300 +269,228 @@
     <t>6000000元(與18地號土地一併購買）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>基隆第一信用合作社</t>
+  </si>
+  <si>
+    <t>基隆第二信用合作社</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>匯豐(台灣)商業銀行</t>
+  </si>
+  <si>
+    <t>第一商業銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
+    <t>綜合織</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>1298660</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>南亞塑膠</t>
+  </si>
+  <si>
+    <t>特力股份</t>
+  </si>
+  <si>
+    <t>國泰金控</t>
+  </si>
+  <si>
+    <t>基隆一信</t>
+  </si>
+  <si>
+    <t>華隆股份</t>
+  </si>
+  <si>
+    <t>豐賓電子</t>
+  </si>
+  <si>
+    <t>味王</t>
+  </si>
+  <si>
+    <t>遠東新</t>
+  </si>
+  <si>
+    <t>聯電</t>
+  </si>
+  <si>
+    <t>鴻海精密</t>
+  </si>
+  <si>
+    <t>博達</t>
+  </si>
+  <si>
+    <t>遠東國際商銀</t>
+  </si>
+  <si>
+    <t>中華開發金控</t>
+  </si>
+  <si>
+    <t>郷林</t>
+  </si>
+  <si>
+    <t>合作金庫</t>
+  </si>
+  <si>
+    <t>彩晶</t>
+  </si>
+  <si>
+    <t>台塑</t>
+  </si>
+  <si>
+    <t>南亞</t>
+  </si>
+  <si>
+    <t>統一企業</t>
+  </si>
+  <si>
+    <t>統振電子</t>
+  </si>
+  <si>
+    <t>廣達</t>
+  </si>
+  <si>
+    <t>聯發科</t>
+  </si>
+  <si>
+    <t>鴻纖密</t>
+  </si>
+  <si>
+    <t>鴻準</t>
+  </si>
+  <si>
+    <t>中美晶</t>
+  </si>
+  <si>
+    <t>華南金</t>
+  </si>
+  <si>
+    <t>立錡</t>
+  </si>
+  <si>
+    <t>育富電子</t>
+  </si>
+  <si>
+    <t>大成鋼</t>
+  </si>
+  <si>
+    <t>新興</t>
+  </si>
+  <si>
+    <t>合晶</t>
+  </si>
+  <si>
+    <t>53266</t>
+  </si>
+  <si>
+    <t>23500</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>貝萊德美元儲備基金</t>
+  </si>
+  <si>
+    <t>天達天然資源基金</t>
+  </si>
+  <si>
+    <t>施羅德能源基金</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業基金</t>
+  </si>
+  <si>
+    <t>瑞銀美小股基金</t>
+  </si>
+  <si>
+    <t>貝萊德世界黃金基金</t>
+  </si>
+  <si>
+    <t>貝萊德新興市場基金</t>
+  </si>
+  <si>
+    <t>(九）珠寶</t>
+  </si>
+  <si>
+    <t>古董字畫及其他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>r額</t>
+  </si>
+  <si>
+    <t>新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產</t>
   </si>
   <si>
     <t>種類</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>基隆第一信用合作社</t>
-  </si>
-  <si>
-    <t>基隆第二信用合作社</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>匯豐(台灣)商業銀行</t>
-  </si>
-  <si>
-    <t>第一商業銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
-    <t>綜合織</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>1298660</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>佳福公司</t>
-  </si>
-  <si>
-    <t>南亞塑膠</t>
-  </si>
-  <si>
-    <t>特力股份</t>
-  </si>
-  <si>
-    <t>國泰金控</t>
-  </si>
-  <si>
-    <t>基隆一信</t>
-  </si>
-  <si>
-    <t>華隆股份</t>
-  </si>
-  <si>
-    <t>豐賓電子</t>
-  </si>
-  <si>
-    <t>味王</t>
-  </si>
-  <si>
-    <t>遠東新</t>
-  </si>
-  <si>
-    <t>聯電</t>
-  </si>
-  <si>
-    <t>鴻海精密</t>
-  </si>
-  <si>
-    <t>博達</t>
-  </si>
-  <si>
-    <t>遠東國際商銀</t>
-  </si>
-  <si>
-    <t>中華開發金控</t>
-  </si>
-  <si>
-    <t>郷林</t>
-  </si>
-  <si>
-    <t>合作金庫</t>
-  </si>
-  <si>
-    <t>彩晶</t>
-  </si>
-  <si>
-    <t>台塑</t>
-  </si>
-  <si>
-    <t>南亞</t>
-  </si>
-  <si>
-    <t>統一企業</t>
-  </si>
-  <si>
-    <t>統振電子</t>
-  </si>
-  <si>
-    <t>廣達</t>
-  </si>
-  <si>
-    <t>聯發科</t>
-  </si>
-  <si>
-    <t>鴻纖密</t>
-  </si>
-  <si>
-    <t>鴻準</t>
-  </si>
-  <si>
-    <t>中美晶</t>
-  </si>
-  <si>
-    <t>華南金</t>
-  </si>
-  <si>
-    <t>立錡</t>
-  </si>
-  <si>
-    <t>育富電子</t>
-  </si>
-  <si>
-    <t>大成鋼</t>
-  </si>
-  <si>
-    <t>新興</t>
-  </si>
-  <si>
-    <t>合晶</t>
-  </si>
-  <si>
-    <t>53266</t>
-  </si>
-  <si>
-    <t>23500</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>貝萊德美元儲備基金</t>
-  </si>
-  <si>
-    <t>天達天然資源基金</t>
-  </si>
-  <si>
-    <t>施羅德能源基金</t>
-  </si>
-  <si>
-    <t>貝萊德世界礦業基金</t>
-  </si>
-  <si>
-    <t>瑞銀美小股基金</t>
-  </si>
-  <si>
-    <t>貝萊德世界黃金基金</t>
-  </si>
-  <si>
-    <t>貝萊德新興市場基金</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>單位</t>
-  </si>
-  <si>
-    <t>數</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
-    <t>外幣幣</t>
-  </si>
-  <si>
-    <t>別</t>
-  </si>
-  <si>
-    <t>(九）珠寶</t>
-  </si>
-  <si>
-    <t>財產</t>
-  </si>
-  <si>
-    <t>古董字畫及其他具有相當價值之財產（總作</t>
-  </si>
-  <si>
     <t>件</t>
   </si>
   <si>
-    <t>r額</t>
+    <t>人</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所</t>
   </si>
   <si>
-    <t>新臺幣元）</t>
-  </si>
-  <si>
     <t>有</t>
   </si>
   <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>抵押貸款</t>
   </si>
   <si>
@@ -599,34 +503,22 @@
     <t>設定抵押</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
     <t>大春報關股份有限公司</t>
   </si>
   <si>
+    <t>基隆市仁愛區孝三路101號3樓</t>
+  </si>
+  <si>
+    <t>投資</t>
+  </si>
+  <si>
     <t>鎮洲裝卸股份有限公司</t>
   </si>
   <si>
-    <t>基隆市仁愛區孝三路101號3樓</t>
-  </si>
-  <si>
     <t>基隆市中正區港通里中正路12號7樓</t>
   </si>
   <si>
     <t>86年</t>
-  </si>
-  <si>
-    <t>投資</t>
   </si>
 </sst>
 </file>
@@ -985,13 +877,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,19 +926,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>46</v>
@@ -1055,19 +953,19 @@
         <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>47</v>
@@ -1076,24 +974,30 @@
         <v>726</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>46</v>
@@ -1102,19 +1006,19 @@
         <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>47</v>
@@ -1123,45 +1027,51 @@
         <v>726</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>26</v>
+        <v>10750.88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>47</v>
@@ -1170,45 +1080,51 @@
         <v>726</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2687.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>10750.88</v>
+        <v>144.76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>47</v>
@@ -1217,24 +1133,30 @@
         <v>726</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0022</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.318472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>144.76</v>
+        <v>195.81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>47</v>
@@ -1246,16 +1168,16 @@
         <v>57</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>47</v>
@@ -1264,24 +1186,30 @@
         <v>726</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0333333333333333</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>6.527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>195.81</v>
+        <v>13.15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>47</v>
@@ -1293,16 +1221,16 @@
         <v>57</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>47</v>
@@ -1311,24 +1239,30 @@
         <v>726</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0333333333333333</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.438333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>13.15</v>
+        <v>57.2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>47</v>
@@ -1340,16 +1274,16 @@
         <v>57</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>47</v>
@@ -1358,45 +1292,51 @@
         <v>726</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0333333333333333</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1.90666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>57.2</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>47</v>
@@ -1405,24 +1345,30 @@
         <v>726</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>47</v>
@@ -1434,16 +1380,16 @@
         <v>57</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>47</v>
@@ -1452,139 +1398,157 @@
         <v>726</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>1593</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="2">
+        <v>726</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="2">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0169</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>26.9217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1056</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="2">
+        <v>9000000</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="2">
+        <v>726</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="2">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.142857142857143</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>150.857142857143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>435</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="2">
-        <v>726</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1593</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="2">
-        <v>726</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1056</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="2">
-        <v>9000000</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>47</v>
@@ -1593,24 +1557,30 @@
         <v>726</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.0115</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>5.0025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>435</v>
+        <v>419.66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>46</v>
@@ -1619,19 +1589,17 @@
         <v>54</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="J14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>47</v>
@@ -1640,24 +1608,30 @@
         <v>726</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.0002</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.083932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>419.66</v>
+        <v>1698.07</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>46</v>
@@ -1666,17 +1640,17 @@
         <v>55</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>47</v>
@@ -1685,43 +1659,49 @@
         <v>726</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.0329</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>55.866503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C16" s="2">
-        <v>1698.07</v>
+        <v>3293.16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>47</v>
@@ -1730,21 +1710,27 @@
         <v>726</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O16" s="2">
+        <v>29</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.0004</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1.317264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="2">
-        <v>3293.16</v>
+        <v>1242.85</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>44</v>
@@ -1756,17 +1742,17 @@
         <v>54</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>47</v>
@@ -1775,24 +1761,30 @@
         <v>726</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O17" s="2">
+        <v>30</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.0329</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>40.889765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="2">
-        <v>1242.85</v>
+        <v>558.71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>46</v>
@@ -1801,17 +1793,17 @@
         <v>54</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>47</v>
@@ -1820,21 +1812,27 @@
         <v>726</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O18" s="2">
+        <v>31</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.0329</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>18.381559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1">
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" s="2">
-        <v>558.71</v>
+        <v>594.14</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>43</v>
@@ -1846,17 +1844,17 @@
         <v>54</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>47</v>
@@ -1865,24 +1863,30 @@
         <v>726</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O19" s="2">
+        <v>32</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.0002</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.118828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1">
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="2">
-        <v>594.14</v>
+        <v>408.38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>46</v>
@@ -1891,17 +1895,17 @@
         <v>54</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>47</v>
@@ -1910,24 +1914,30 @@
         <v>726</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="2">
+        <v>33</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.0002</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.081676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="2">
-        <v>408.38</v>
+        <v>1966.44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>46</v>
@@ -1936,17 +1946,17 @@
         <v>54</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>47</v>
@@ -1955,55 +1965,16 @@
         <v>726</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="2">
-        <v>1966.44</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" s="2">
-        <v>726</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O22" s="2">
-        <v>36</v>
+      <c r="P21" s="2">
+        <v>0.0002</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.393288</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +1984,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2021,169 +1992,167 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="C1" s="1">
+        <v>51.04</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
-        <v>51.04</v>
+        <v>191.7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2">
-        <v>191.7</v>
+        <v>191.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2">
-        <v>191.5</v>
+        <v>25788.13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2">
-        <v>25788.13</v>
+        <v>32.81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2">
-        <v>32.81</v>
+        <v>103.51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2">
-        <v>103.51</v>
+        <v>102.06</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>46</v>
@@ -2192,22 +2161,22 @@
         <v>54</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2">
-        <v>102.06</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>46</v>
@@ -2216,22 +2185,22 @@
         <v>54</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2">
-        <v>7</v>
+        <v>6.73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>46</v>
@@ -2240,22 +2209,22 @@
         <v>54</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2">
-        <v>6.73</v>
+        <v>7.05</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>46</v>
@@ -2264,33 +2233,9 @@
         <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>50</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="2">
-        <v>7.05</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2299,7 +2244,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2307,379 +2252,377 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>47</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>46811</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>46811</v>
+        <v>246794</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>246794</v>
+        <v>22488</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>22488</v>
+      <c r="G4" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>113</v>
+      <c r="G5" s="2">
+        <v>9103</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>9103</v>
+        <v>19918</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>19918</v>
+        <v>831</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>831</v>
+        <v>41984</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>41984</v>
+        <v>451718</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>451718</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>11</v>
+        <v>44035</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>44035</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>100</v>
+        <v>2314484</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>2314484</v>
+        <v>58330</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>58330</v>
+        <v>2496431</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>2496431</v>
+        <v>5409</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>5409</v>
+        <v>30670</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>30670</v>
+        <v>20694</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2687,63 +2630,42 @@
         <v>97</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>20694</v>
+        <v>13259</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="F20" s="2">
+        <v>9641.1</v>
+      </c>
       <c r="G20" s="2">
-        <v>13259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>100</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="2">
-        <v>9641.1</v>
-      </c>
-      <c r="G21" s="2">
         <v>280556</v>
       </c>
     </row>
@@ -2754,7 +2676,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2768,16 +2690,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2803,34 +2725,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="2">
-        <v>1000</v>
+        <v>907</v>
       </c>
       <c r="E2" s="2">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2">
-        <v>1000000</v>
+        <v>9070</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>47</v>
@@ -2839,42 +2761,42 @@
         <v>726</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N2" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="2">
-        <v>907</v>
+        <v>196</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2">
-        <v>9070</v>
+        <v>1960</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>47</v>
@@ -2883,42 +2805,42 @@
         <v>726</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N3" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="2">
-        <v>196</v>
+        <v>1038</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2">
-        <v>1960</v>
+        <v>10380</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>47</v>
@@ -2927,42 +2849,42 @@
         <v>726</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N4" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="2">
-        <v>1038</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2">
-        <v>10380</v>
+        <v>2000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>47</v>
@@ -2971,42 +2893,42 @@
         <v>726</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N5" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="2">
-        <v>20</v>
+        <v>6747</v>
       </c>
       <c r="E6" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2">
-        <v>2000</v>
+        <v>67470</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>47</v>
@@ -3015,86 +2937,86 @@
         <v>726</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N6" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="2">
-        <v>6747</v>
+        <v>52500</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="2">
+        <v>525000</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="2">
+        <v>726</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="2">
         <v>111</v>
-      </c>
-      <c r="G7" s="2">
-        <v>67470</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="2">
-        <v>726</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="2">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="2">
-        <v>52500</v>
+        <v>5734</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G8" s="2">
-        <v>525000</v>
+        <v>57340</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>47</v>
@@ -3103,42 +3025,42 @@
         <v>726</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N8" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="2">
-        <v>5734</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G9" s="2">
-        <v>57340</v>
+        <v>620</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>47</v>
@@ -3147,42 +3069,42 @@
         <v>726</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N9" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="2">
-        <v>62</v>
+        <v>5000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G10" s="2">
-        <v>620</v>
+        <v>50000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>47</v>
@@ -3191,42 +3113,42 @@
         <v>726</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N10" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="2">
-        <v>5000</v>
+        <v>14026</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G11" s="2">
-        <v>50000</v>
+        <v>140260</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>47</v>
@@ -3235,42 +3157,42 @@
         <v>726</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N11" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="2">
-        <v>14026</v>
+        <v>20000</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G12" s="2">
-        <v>140260</v>
+        <v>200000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>47</v>
@@ -3279,42 +3201,42 @@
         <v>726</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N12" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>20000</v>
+        <v>8987</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G13" s="2">
-        <v>200000</v>
+        <v>89870</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>47</v>
@@ -3323,42 +3245,42 @@
         <v>726</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N13" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="2">
-        <v>8987</v>
+        <v>10454</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G14" s="2">
-        <v>89870</v>
+        <v>104540</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>47</v>
@@ -3367,42 +3289,42 @@
         <v>726</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N14" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="2">
-        <v>10454</v>
+        <v>2783</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G15" s="2">
-        <v>104540</v>
+        <v>27830</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>47</v>
@@ -3411,42 +3333,42 @@
         <v>726</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N15" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="2">
-        <v>2783</v>
+        <v>19154</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G16" s="2">
-        <v>27830</v>
+        <v>191540</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>47</v>
@@ -3455,42 +3377,42 @@
         <v>726</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N16" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="2">
-        <v>19154</v>
+        <v>5000</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G17" s="2">
-        <v>191540</v>
+        <v>50000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>47</v>
@@ -3499,42 +3421,42 @@
         <v>726</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N17" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2">
-        <v>5000</v>
+        <v>21400</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G18" s="2">
-        <v>50000</v>
+        <v>214000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>47</v>
@@ -3543,42 +3465,42 @@
         <v>726</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N18" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="2">
-        <v>21400</v>
+        <v>20600</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G19" s="2">
-        <v>214000</v>
+        <v>206000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>47</v>
@@ -3587,42 +3509,42 @@
         <v>726</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N19" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="2">
-        <v>20600</v>
+        <v>12781</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G20" s="2">
-        <v>206000</v>
+        <v>127810</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>47</v>
@@ -3631,42 +3553,42 @@
         <v>726</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N20" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="2">
-        <v>12781</v>
+        <v>26620</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G21" s="2">
-        <v>127810</v>
+        <v>266200</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>47</v>
@@ -3675,42 +3597,42 @@
         <v>726</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N21" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="2">
-        <v>26620</v>
+        <v>109</v>
       </c>
       <c r="E22" s="2">
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G22" s="2">
-        <v>266200</v>
+        <v>1090</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>47</v>
@@ -3719,42 +3641,42 @@
         <v>726</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N22" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="2">
-        <v>109</v>
+        <v>26352</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G23" s="2">
-        <v>1090</v>
+        <v>263520</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>47</v>
@@ -3763,42 +3685,42 @@
         <v>726</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N23" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="2">
-        <v>26352</v>
+      <c r="D24" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G24" s="2">
-        <v>263520</v>
+        <v>532660</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>47</v>
@@ -3807,42 +3729,42 @@
         <v>726</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N24" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>150</v>
+      <c r="D25" s="2">
+        <v>46554</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G25" s="2">
-        <v>532660</v>
+        <v>465540</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>47</v>
@@ -3851,42 +3773,42 @@
         <v>726</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N25" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="2">
-        <v>46554</v>
+        <v>26383</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G26" s="2">
-        <v>465540</v>
+        <v>263830</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>47</v>
@@ -3895,10 +3817,10 @@
         <v>726</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N26" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3906,31 +3828,31 @@
         <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="2">
-        <v>26383</v>
+        <v>1211</v>
       </c>
       <c r="E27" s="2">
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G27" s="2">
-        <v>263830</v>
+        <v>12110</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>47</v>
@@ -3939,7 +3861,7 @@
         <v>726</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N27" s="2">
         <v>132</v>
@@ -3947,34 +3869,34 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="2">
-        <v>1211</v>
+        <v>2425</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G28" s="2">
-        <v>12110</v>
+        <v>24250</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>47</v>
@@ -3983,42 +3905,42 @@
         <v>726</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N28" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="2">
-        <v>2425</v>
+        <v>20000</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G29" s="2">
-        <v>24250</v>
+        <v>200000</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>47</v>
@@ -4027,42 +3949,42 @@
         <v>726</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N29" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="2">
-        <v>20000</v>
+        <v>12100</v>
       </c>
       <c r="E30" s="2">
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G30" s="2">
-        <v>200000</v>
+        <v>121000</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>47</v>
@@ -4071,42 +3993,42 @@
         <v>726</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N30" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="2">
-        <v>12100</v>
+        <v>47000</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G31" s="2">
-        <v>121000</v>
+        <v>470000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>47</v>
@@ -4115,42 +4037,42 @@
         <v>726</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N31" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="2">
-        <v>47000</v>
+        <v>2350</v>
       </c>
       <c r="E32" s="2">
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="2">
-        <v>470000</v>
+        <v>84</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>47</v>
@@ -4159,54 +4081,10 @@
         <v>726</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N32" s="2">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="1">
-        <v>139</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="2">
-        <v>2350</v>
-      </c>
-      <c r="E33" s="2">
-        <v>10</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" s="2">
-        <v>726</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N33" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4216,7 +4094,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4224,232 +4102,206 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>156</v>
+        <v>85</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1668.05</v>
+      </c>
+      <c r="F1" s="1">
+        <v>150.82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7320481</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
-        <v>1668.05</v>
+        <v>1355.484</v>
       </c>
       <c r="F2" s="2">
-        <v>150.82</v>
+        <v>10.61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H2" s="2">
-        <v>7320481</v>
+        <v>418507</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2">
-        <v>1355.484</v>
+        <v>659.81</v>
       </c>
       <c r="F3" s="2">
-        <v>10.61</v>
+        <v>31.33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H3" s="2">
-        <v>418507</v>
+        <v>601550</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2">
-        <v>659.81</v>
+        <v>271.67</v>
       </c>
       <c r="F4" s="2">
-        <v>31.33</v>
+        <v>64.71</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H4" s="2">
-        <v>601550</v>
+        <v>511571</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2">
-        <v>271.67</v>
+        <v>57.808</v>
       </c>
       <c r="F5" s="2">
-        <v>64.71</v>
+        <v>504.5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H5" s="2">
-        <v>511571</v>
+        <v>848676</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2">
-        <v>57.808</v>
+        <v>2357.26</v>
       </c>
       <c r="F6" s="2">
-        <v>504.5</v>
+        <v>51.82</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H6" s="2">
-        <v>848676</v>
+        <v>3554659</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2">
-        <v>2357.26</v>
+        <v>1194.32</v>
       </c>
       <c r="F7" s="2">
-        <v>51.82</v>
+        <v>29.44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H7" s="2">
-        <v>3554659</v>
+        <v>1023179</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2">
-        <v>1194.32</v>
+        <v>84.56</v>
       </c>
       <c r="F8" s="2">
-        <v>29.44</v>
+        <v>64.71</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H8" s="2">
-        <v>1023179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>156</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="2">
-        <v>84.56</v>
-      </c>
-      <c r="F9" s="2">
-        <v>64.71</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H9" s="2">
         <v>159231</v>
       </c>
     </row>
@@ -4460,7 +4312,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4468,78 +4320,49 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>163</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4548,6 +4371,39 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1276169</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -4557,124 +4413,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
+      </c>
+      <c r="E1" s="1">
+        <v>375000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="E2" s="2">
-        <v>1276169</v>
+        <v>5901610</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>187</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="2">
-        <v>375000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>188</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5901610</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="168">
   <si>
     <t>name</t>
   </si>
@@ -71,6 +71,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>基隆市中山區仁德段06880000地號</t>
+  </si>
+  <si>
     <t>基隆市中山區仁德段06880001地號</t>
   </si>
   <si>
@@ -191,12 +194,12 @@
     <t>99年05月26曰</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>貿賣</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>(抵債）</t>
   </si>
   <si>
@@ -330,6 +333,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>佳福公司</t>
   </si>
   <si>
     <t>南亞塑膠</t>
@@ -877,7 +883,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -935,125 +941,125 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" s="2">
         <v>726</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.25</v>
       </c>
       <c r="Q2" s="2">
-        <v>49</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" s="2">
         <v>726</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.25</v>
       </c>
       <c r="Q3" s="2">
-        <v>6.5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>10750.88</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>49</v>
@@ -1062,45 +1068,45 @@
         <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M4" s="2">
         <v>726</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.25</v>
       </c>
       <c r="Q4" s="2">
-        <v>2687.72</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>144.76</v>
+        <v>10750.88</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
@@ -1115,210 +1121,210 @@
         <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" s="2">
         <v>726</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0022</v>
+        <v>0.25</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.318472</v>
+        <v>2687.72</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>195.81</v>
+        <v>144.76</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M6" s="2">
         <v>726</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
-        <v>0.0333333333333333</v>
+        <v>0.0022</v>
       </c>
       <c r="Q6" s="2">
-        <v>6.527</v>
+        <v>0.318472</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>13.15</v>
+        <v>195.81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M7" s="2">
         <v>726</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>0.0333333333333333</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.438333333333333</v>
+        <v>6.527</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>57.2</v>
+        <v>13.15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" s="2">
         <v>726</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>0.0333333333333333</v>
       </c>
       <c r="Q8" s="2">
-        <v>1.90666666666667</v>
+        <v>0.438333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>57.2</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>51</v>
@@ -1327,39 +1333,39 @@
         <v>57</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M9" s="2">
         <v>726</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="Q9" s="2">
-        <v>2</v>
+        <v>1.90666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -1368,40 +1374,40 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M10" s="2">
         <v>726</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
@@ -1412,19 +1418,19 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>1593</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>52</v>
@@ -1433,547 +1439,600 @@
         <v>57</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M11" s="2">
         <v>726</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
-        <v>0.0169</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>26.9217</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>1056</v>
+        <v>1593</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="2">
-        <v>9000000</v>
+        <v>57</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M12" s="2">
         <v>726</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
-        <v>0.142857142857143</v>
+        <v>0.0169</v>
       </c>
       <c r="Q12" s="2">
-        <v>150.857142857143</v>
+        <v>26.9217</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>435</v>
+        <v>1056</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9000000</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M13" s="2">
         <v>726</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
-        <v>0.0115</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Q13" s="2">
-        <v>5.0025</v>
+        <v>150.857142857143</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>419.66</v>
+        <v>435</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="I14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M14" s="2">
         <v>726</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
-        <v>0.0002</v>
+        <v>0.0115</v>
       </c>
       <c r="Q14" s="2">
-        <v>0.083932</v>
+        <v>5.0025</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>1698.07</v>
+        <v>419.66</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M15" s="2">
         <v>726</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
-        <v>0.0329</v>
+        <v>0.0002</v>
       </c>
       <c r="Q15" s="2">
-        <v>55.866503</v>
+        <v>0.083932</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>3293.16</v>
+        <v>1698.07</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M16" s="2">
         <v>726</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O16" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
-        <v>0.0004</v>
+        <v>0.0329</v>
       </c>
       <c r="Q16" s="2">
-        <v>1.317264</v>
+        <v>55.866503</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>1242.85</v>
+        <v>3293.16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M17" s="2">
         <v>726</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O17" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P17" s="2">
-        <v>0.0329</v>
+        <v>0.0004</v>
       </c>
       <c r="Q17" s="2">
-        <v>40.889765</v>
+        <v>1.317264</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>558.71</v>
+        <v>1242.85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M18" s="2">
         <v>726</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O18" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="2">
         <v>0.0329</v>
       </c>
       <c r="Q18" s="2">
-        <v>18.381559</v>
+        <v>40.889765</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>594.14</v>
+        <v>558.71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M19" s="2">
         <v>726</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O19" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P19" s="2">
-        <v>0.0002</v>
+        <v>0.0329</v>
       </c>
       <c r="Q19" s="2">
-        <v>0.118828</v>
+        <v>18.381559</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>408.38</v>
+        <v>594.14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M20" s="2">
         <v>726</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P20" s="2">
         <v>0.0002</v>
       </c>
       <c r="Q20" s="2">
-        <v>0.081676</v>
+        <v>0.118828</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>1966.44</v>
+        <v>408.38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M21" s="2">
         <v>726</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P21" s="2">
         <v>0.0002</v>
       </c>
       <c r="Q21" s="2">
+        <v>0.081676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1966.44</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" s="2">
+        <v>726</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="2">
+        <v>34</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.0002</v>
+      </c>
+      <c r="Q22" s="2">
         <v>0.393288</v>
       </c>
     </row>
@@ -1984,258 +2043,581 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="1">
-        <v>51.04</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
         <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="2">
-        <v>191.7</v>
+        <v>51.04</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="2">
+        <v>726</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="2">
+        <v>39</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>51.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="2">
-        <v>191.5</v>
+        <v>191.7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="2">
+        <v>726</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="2">
+        <v>40</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>191.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="2">
-        <v>25788.13</v>
+        <v>191.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="2">
+        <v>726</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="2">
+        <v>41</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>191.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="2">
-        <v>32.81</v>
+        <v>25788.13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="2">
+        <v>726</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="2">
+        <v>42</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>25788.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="2">
-        <v>103.51</v>
+        <v>32.81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="2">
+        <v>726</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="2">
+        <v>43</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>32.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="2">
-        <v>102.06</v>
+        <v>103.51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="2">
+        <v>726</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="2">
+        <v>44</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>103.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C8" s="2">
-        <v>7</v>
+        <v>102.06</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="2">
+        <v>726</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="2">
+        <v>45</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>102.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
         <v>46</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="2">
-        <v>6.73</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="2">
+        <v>726</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="2">
         <v>46</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="P9" s="2">
+        <v>0.004739336492891</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.033175355450237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="2">
-        <v>7.05</v>
+        <v>6.73</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="2">
+        <v>726</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="2">
+        <v>47</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.00157977883096367</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.0106319115323855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7.05</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="2">
+        <v>726</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="2">
+        <v>48</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0253164556962025</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.178481012658228</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2244,7 +2626,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2252,16 +2634,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -2270,402 +2652,423 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>246794</v>
+        <v>46811</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>22488</v>
+        <v>246794</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>99</v>
+      <c r="G4" s="2">
+        <v>22488</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>9103</v>
+      <c r="G5" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>19918</v>
+        <v>9103</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>83</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>831</v>
+        <v>19918</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>41984</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>451718</v>
+        <v>41984</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>11</v>
+        <v>451718</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>44035</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>100</v>
+        <v>44035</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>2314484</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>58330</v>
+        <v>2314484</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>2496431</v>
+        <v>58330</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>5409</v>
+        <v>2496431</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>30670</v>
+        <v>5409</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>20694</v>
+        <v>30670</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>13259</v>
+        <v>20694</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
+        <v>97</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>13259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>98</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="B21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="2">
         <v>9641.1</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G21" s="2">
         <v>280556</v>
       </c>
     </row>
@@ -2676,7 +3079,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2690,13 +3093,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2725,1365 +3128,1409 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2">
-        <v>907</v>
+        <v>1000</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2">
-        <v>9070</v>
+        <v>1000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2">
         <v>726</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N2" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2">
-        <v>196</v>
+        <v>907</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2">
-        <v>1960</v>
+        <v>9070</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2">
         <v>726</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N3" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2">
-        <v>1038</v>
+        <v>196</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2">
-        <v>10380</v>
+        <v>1960</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2">
         <v>726</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2">
-        <v>20</v>
+        <v>1038</v>
       </c>
       <c r="E5" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" s="2">
-        <v>2000</v>
+        <v>10380</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L5" s="2">
         <v>726</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N5" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2">
-        <v>6747</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G6" s="2">
-        <v>67470</v>
+        <v>2000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L6" s="2">
         <v>726</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N6" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2">
-        <v>52500</v>
+        <v>6747</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G7" s="2">
-        <v>525000</v>
+        <v>67470</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" s="2">
         <v>726</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N7" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2">
-        <v>5734</v>
+        <v>52500</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" s="2">
-        <v>57340</v>
+        <v>525000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="2">
         <v>726</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N8" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2">
-        <v>62</v>
+        <v>5734</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G9" s="2">
-        <v>620</v>
+        <v>57340</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L9" s="2">
         <v>726</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N9" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2">
-        <v>5000</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G10" s="2">
-        <v>50000</v>
+        <v>620</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L10" s="2">
         <v>726</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N10" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2">
-        <v>14026</v>
+        <v>5000</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G11" s="2">
-        <v>140260</v>
+        <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L11" s="2">
         <v>726</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N11" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2">
-        <v>20000</v>
+        <v>14026</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G12" s="2">
-        <v>200000</v>
+        <v>140260</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L12" s="2">
         <v>726</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N12" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2">
-        <v>8987</v>
+        <v>20000</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" s="2">
-        <v>89870</v>
+        <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" s="2">
         <v>726</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N13" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2">
-        <v>10454</v>
+        <v>8987</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" s="2">
-        <v>104540</v>
+        <v>89870</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L14" s="2">
         <v>726</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N14" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2">
-        <v>2783</v>
+        <v>10454</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" s="2">
-        <v>27830</v>
+        <v>104540</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L15" s="2">
         <v>726</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N15" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2">
-        <v>19154</v>
+        <v>2783</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" s="2">
-        <v>191540</v>
+        <v>27830</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L16" s="2">
         <v>726</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N16" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2">
-        <v>5000</v>
+        <v>19154</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G17" s="2">
-        <v>50000</v>
+        <v>191540</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L17" s="2">
         <v>726</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N17" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2">
-        <v>21400</v>
+        <v>5000</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" s="2">
-        <v>214000</v>
+        <v>50000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L18" s="2">
         <v>726</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N18" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2">
-        <v>20600</v>
+        <v>21400</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G19" s="2">
-        <v>206000</v>
+        <v>214000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L19" s="2">
         <v>726</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N19" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2">
-        <v>12781</v>
+        <v>20600</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G20" s="2">
-        <v>127810</v>
+        <v>206000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L20" s="2">
         <v>726</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N20" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2">
-        <v>26620</v>
+        <v>12781</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G21" s="2">
-        <v>266200</v>
+        <v>127810</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L21" s="2">
         <v>726</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N21" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2">
-        <v>109</v>
+        <v>26620</v>
       </c>
       <c r="E22" s="2">
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" s="2">
-        <v>1090</v>
+        <v>266200</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L22" s="2">
         <v>726</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N22" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" s="2">
-        <v>26352</v>
+        <v>109</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G23" s="2">
-        <v>263520</v>
+        <v>1090</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L23" s="2">
         <v>726</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N23" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>134</v>
+        <v>47</v>
+      </c>
+      <c r="D24" s="2">
+        <v>26352</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G24" s="2">
-        <v>532660</v>
+        <v>263520</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L24" s="2">
         <v>726</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N24" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="2">
-        <v>46554</v>
+        <v>47</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G25" s="2">
-        <v>465540</v>
+        <v>532660</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L25" s="2">
         <v>726</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N25" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" s="2">
-        <v>26383</v>
+        <v>46554</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G26" s="2">
-        <v>263830</v>
+        <v>465540</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L26" s="2">
         <v>726</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N26" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2">
-        <v>1211</v>
+        <v>26383</v>
       </c>
       <c r="E27" s="2">
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G27" s="2">
-        <v>12110</v>
+        <v>263830</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L27" s="2">
         <v>726</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N27" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" s="2">
-        <v>2425</v>
+        <v>1211</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G28" s="2">
-        <v>24250</v>
+        <v>12110</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L28" s="2">
         <v>726</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N28" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D29" s="2">
-        <v>20000</v>
+        <v>2425</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G29" s="2">
-        <v>200000</v>
+        <v>24250</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L29" s="2">
         <v>726</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N29" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" s="2">
-        <v>12100</v>
+        <v>20000</v>
       </c>
       <c r="E30" s="2">
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G30" s="2">
-        <v>121000</v>
+        <v>200000</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L30" s="2">
         <v>726</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N30" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D31" s="2">
-        <v>47000</v>
+        <v>12100</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G31" s="2">
-        <v>470000</v>
+        <v>121000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L31" s="2">
         <v>726</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N31" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D32" s="2">
-        <v>2350</v>
+        <v>47000</v>
       </c>
       <c r="E32" s="2">
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="2">
+        <v>470000</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" s="2">
+        <v>726</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N32" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1">
+        <v>137</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L32" s="2">
-        <v>726</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N32" s="2">
+      <c r="C33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2350</v>
+      </c>
+      <c r="E33" s="2">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" s="2">
+        <v>726</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N33" s="2">
         <v>137</v>
       </c>
     </row>
@@ -4094,7 +4541,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4102,13 +4549,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1">
         <v>1668.05</v>
@@ -4117,7 +4564,7 @@
         <v>150.82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1">
         <v>7320481</v>
@@ -4125,183 +4572,209 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
-        <v>1355.484</v>
+        <v>1668.05</v>
       </c>
       <c r="F2" s="2">
-        <v>10.61</v>
+        <v>150.82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H2" s="2">
-        <v>418507</v>
+        <v>7320481</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2">
-        <v>659.81</v>
+        <v>1355.484</v>
       </c>
       <c r="F3" s="2">
-        <v>31.33</v>
+        <v>10.61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H3" s="2">
-        <v>601550</v>
+        <v>418507</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2">
-        <v>271.67</v>
+        <v>659.81</v>
       </c>
       <c r="F4" s="2">
-        <v>64.71</v>
+        <v>31.33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" s="2">
-        <v>511571</v>
+        <v>601550</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2">
-        <v>57.808</v>
+        <v>271.67</v>
       </c>
       <c r="F5" s="2">
-        <v>504.5</v>
+        <v>64.71</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H5" s="2">
-        <v>848676</v>
+        <v>511571</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2">
-        <v>2357.26</v>
+        <v>57.808</v>
       </c>
       <c r="F6" s="2">
-        <v>51.82</v>
+        <v>504.5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H6" s="2">
-        <v>3554659</v>
+        <v>848676</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2">
-        <v>1194.32</v>
+        <v>2357.26</v>
       </c>
       <c r="F7" s="2">
-        <v>29.44</v>
+        <v>51.82</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H7" s="2">
-        <v>1023179</v>
+        <v>3554659</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
+        <v>153</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1194.32</v>
+      </c>
+      <c r="F8" s="2">
+        <v>29.44</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1023179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>154</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="B9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="2">
         <v>84.56</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
         <v>64.71</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="2">
         <v>159231</v>
       </c>
     </row>
@@ -4312,7 +4785,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4320,17 +4793,17 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -4338,31 +4811,52 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
+        <v>160</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
         <v>161</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>155</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4371,39 +4865,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1276169</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -4413,45 +4874,124 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1276169</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>180</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1276169</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1">
         <v>375000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>185</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="2">
+        <v>375000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>186</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5901610</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5901610</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="169">
   <si>
     <t>name</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>6000000元(與18地號土地一併購買）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>中華郵政股份有限公司</t>
@@ -2125,7 +2128,7 @@
         <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>63</v>
@@ -2178,7 +2181,7 @@
         <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>63</v>
@@ -2231,7 +2234,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>63</v>
@@ -2284,7 +2287,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>63</v>
@@ -2337,7 +2340,7 @@
         <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>63</v>
@@ -2388,7 +2391,7 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>63</v>
@@ -2439,7 +2442,7 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>63</v>
@@ -2490,7 +2493,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>63</v>
@@ -2541,7 +2544,7 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>63</v>
@@ -2592,7 +2595,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>63</v>
@@ -2634,13 +2637,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>48</v>
@@ -2655,13 +2658,13 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>48</v>
@@ -2676,13 +2679,13 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>48</v>
@@ -2697,13 +2700,13 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>48</v>
@@ -2718,20 +2721,20 @@
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2739,13 +2742,13 @@
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>48</v>
@@ -2760,13 +2763,13 @@
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>48</v>
@@ -2781,13 +2784,13 @@
         <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>48</v>
@@ -2802,13 +2805,13 @@
         <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>48</v>
@@ -2823,13 +2826,13 @@
         <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>48</v>
@@ -2844,13 +2847,13 @@
         <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>48</v>
@@ -2865,13 +2868,13 @@
         <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>47</v>
@@ -2886,13 +2889,13 @@
         <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>47</v>
@@ -2907,13 +2910,13 @@
         <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>47</v>
@@ -2928,13 +2931,13 @@
         <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>47</v>
@@ -2949,13 +2952,13 @@
         <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>47</v>
@@ -2970,13 +2973,13 @@
         <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -2991,13 +2994,13 @@
         <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
@@ -3012,13 +3015,13 @@
         <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -3033,13 +3036,13 @@
         <v>97</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>47</v>
@@ -3054,13 +3057,13 @@
         <v>98</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>48</v>
@@ -3093,13 +3096,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3131,7 +3134,7 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
@@ -3143,13 +3146,13 @@
         <v>1000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2">
         <v>1000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>63</v>
@@ -3175,7 +3178,7 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>48</v>
@@ -3187,13 +3190,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2">
         <v>9070</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>63</v>
@@ -3219,7 +3222,7 @@
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>48</v>
@@ -3231,13 +3234,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2">
         <v>1960</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>63</v>
@@ -3263,7 +3266,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
@@ -3275,13 +3278,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G5" s="2">
         <v>10380</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>63</v>
@@ -3307,7 +3310,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>48</v>
@@ -3319,13 +3322,13 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" s="2">
         <v>2000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>63</v>
@@ -3351,7 +3354,7 @@
         <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>48</v>
@@ -3363,13 +3366,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G7" s="2">
         <v>67470</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>63</v>
@@ -3395,7 +3398,7 @@
         <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>48</v>
@@ -3407,13 +3410,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G8" s="2">
         <v>525000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>63</v>
@@ -3439,7 +3442,7 @@
         <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>48</v>
@@ -3451,13 +3454,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G9" s="2">
         <v>57340</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>63</v>
@@ -3483,7 +3486,7 @@
         <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
@@ -3495,13 +3498,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G10" s="2">
         <v>620</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>63</v>
@@ -3527,7 +3530,7 @@
         <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
@@ -3539,13 +3542,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G11" s="2">
         <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>63</v>
@@ -3571,7 +3574,7 @@
         <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>48</v>
@@ -3583,13 +3586,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" s="2">
         <v>140260</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>63</v>
@@ -3615,7 +3618,7 @@
         <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>48</v>
@@ -3627,13 +3630,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>63</v>
@@ -3659,7 +3662,7 @@
         <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>48</v>
@@ -3671,13 +3674,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G14" s="2">
         <v>89870</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>63</v>
@@ -3703,7 +3706,7 @@
         <v>118</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>48</v>
@@ -3715,13 +3718,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" s="2">
         <v>104540</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>63</v>
@@ -3747,7 +3750,7 @@
         <v>119</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>48</v>
@@ -3759,13 +3762,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" s="2">
         <v>27830</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>63</v>
@@ -3791,7 +3794,7 @@
         <v>120</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>48</v>
@@ -3803,13 +3806,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" s="2">
         <v>191540</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>63</v>
@@ -3835,7 +3838,7 @@
         <v>121</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>48</v>
@@ -3847,13 +3850,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G18" s="2">
         <v>50000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>63</v>
@@ -3879,7 +3882,7 @@
         <v>122</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>47</v>
@@ -3891,13 +3894,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G19" s="2">
         <v>214000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>63</v>
@@ -3923,7 +3926,7 @@
         <v>123</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>47</v>
@@ -3935,13 +3938,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G20" s="2">
         <v>206000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>63</v>
@@ -3967,7 +3970,7 @@
         <v>124</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>47</v>
@@ -3979,13 +3982,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G21" s="2">
         <v>127810</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>63</v>
@@ -4011,7 +4014,7 @@
         <v>125</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>47</v>
@@ -4023,13 +4026,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G22" s="2">
         <v>266200</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>63</v>
@@ -4055,7 +4058,7 @@
         <v>126</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>47</v>
@@ -4067,13 +4070,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G23" s="2">
         <v>1090</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>63</v>
@@ -4099,7 +4102,7 @@
         <v>127</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>47</v>
@@ -4111,13 +4114,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G24" s="2">
         <v>263520</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>63</v>
@@ -4143,25 +4146,25 @@
         <v>128</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G25" s="2">
         <v>532660</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>63</v>
@@ -4187,7 +4190,7 @@
         <v>129</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>47</v>
@@ -4199,13 +4202,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G26" s="2">
         <v>465540</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>63</v>
@@ -4231,7 +4234,7 @@
         <v>130</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>47</v>
@@ -4243,13 +4246,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G27" s="2">
         <v>263830</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>63</v>
@@ -4275,7 +4278,7 @@
         <v>132</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>47</v>
@@ -4287,13 +4290,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G28" s="2">
         <v>12110</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>63</v>
@@ -4319,7 +4322,7 @@
         <v>133</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>47</v>
@@ -4331,13 +4334,13 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G29" s="2">
         <v>24250</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>63</v>
@@ -4363,7 +4366,7 @@
         <v>134</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>47</v>
@@ -4375,13 +4378,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G30" s="2">
         <v>200000</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>63</v>
@@ -4407,7 +4410,7 @@
         <v>135</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>47</v>
@@ -4419,13 +4422,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G31" s="2">
         <v>121000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>63</v>
@@ -4451,7 +4454,7 @@
         <v>136</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>47</v>
@@ -4463,13 +4466,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G32" s="2">
         <v>470000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>63</v>
@@ -4495,7 +4498,7 @@
         <v>137</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>47</v>
@@ -4507,13 +4510,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>63</v>
@@ -4549,13 +4552,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1">
         <v>1668.05</v>
@@ -4564,7 +4567,7 @@
         <v>150.82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1">
         <v>7320481</v>
@@ -4575,13 +4578,13 @@
         <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>1668.05</v>
@@ -4590,7 +4593,7 @@
         <v>150.82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H2" s="2">
         <v>7320481</v>
@@ -4601,13 +4604,13 @@
         <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2">
         <v>1355.484</v>
@@ -4616,7 +4619,7 @@
         <v>10.61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H3" s="2">
         <v>418507</v>
@@ -4627,13 +4630,13 @@
         <v>149</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2">
         <v>659.81</v>
@@ -4642,7 +4645,7 @@
         <v>31.33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H4" s="2">
         <v>601550</v>
@@ -4653,13 +4656,13 @@
         <v>150</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2">
         <v>271.67</v>
@@ -4668,7 +4671,7 @@
         <v>64.71</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2">
         <v>511571</v>
@@ -4679,13 +4682,13 @@
         <v>151</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2">
         <v>57.808</v>
@@ -4694,7 +4697,7 @@
         <v>504.5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H6" s="2">
         <v>848676</v>
@@ -4705,13 +4708,13 @@
         <v>152</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2">
         <v>2357.26</v>
@@ -4720,7 +4723,7 @@
         <v>51.82</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H7" s="2">
         <v>3554659</v>
@@ -4731,13 +4734,13 @@
         <v>153</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2">
         <v>1194.32</v>
@@ -4746,7 +4749,7 @@
         <v>29.44</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H8" s="2">
         <v>1023179</v>
@@ -4757,13 +4760,13 @@
         <v>154</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2">
         <v>84.56</v>
@@ -4772,7 +4775,7 @@
         <v>64.71</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H9" s="2">
         <v>159231</v>
@@ -4793,17 +4796,17 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -4814,20 +4817,20 @@
         <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4835,28 +4838,28 @@
         <v>161</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4874,22 +4877,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1">
         <v>1276169</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4897,22 +4900,22 @@
         <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E2" s="2">
         <v>1276169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4933,10 +4936,10 @@
         <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1">
         <v>375000</v>
@@ -4945,7 +4948,7 @@
         <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4956,10 +4959,10 @@
         <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" s="2">
         <v>375000</v>
@@ -4968,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4979,19 +4982,19 @@
         <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E3" s="2">
         <v>5901610</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="171">
   <si>
     <t>name</t>
   </si>
@@ -275,67 +275,73 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司</t>
   </si>
   <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>基隆第一信用合作社</t>
+  </si>
+  <si>
+    <t>基隆第二信用合作社</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>匯豐(台灣)商業銀行</t>
+  </si>
+  <si>
+    <t>第一商業銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
+    <t>綜合織</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>基隆第一信用合作社</t>
-  </si>
-  <si>
-    <t>基隆第二信用合作社</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>匯豐(台灣)商業銀行</t>
-  </si>
-  <si>
-    <t>第一商業銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
-    <t>綜合織</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>1298660</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>佳福公司</t>
@@ -2629,13 +2635,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>84</v>
       </c>
@@ -2646,433 +2652,851 @@
         <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>46811</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>46811</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2">
+        <v>726</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>246794</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="2">
+        <v>726</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>22488</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2">
+        <v>726</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>1298660</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>104</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="2">
+        <v>726</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>9103</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="2">
+        <v>726</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>19918</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="2">
+        <v>726</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>831</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="2">
+        <v>726</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2">
+        <v>41984</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="2">
+        <v>726</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="2">
         <v>85</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>41984</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2">
+        <v>451718</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="2">
+        <v>726</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="2">
         <v>86</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>451718</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="2">
+        <v>726</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>44035</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="2">
+        <v>726</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="2">
+        <v>726</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>2314484</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="2">
+        <v>726</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>58330</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="2">
+        <v>726</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>2496431</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="2">
+        <v>726</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>5409</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="2">
+        <v>726</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>30670</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="2">
+        <v>726</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>20694</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="2">
+        <v>726</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>97</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>13259</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="2">
+        <v>726</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>98</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F21" s="2">
-        <v>9641.1</v>
-      </c>
-      <c r="G21" s="2">
         <v>280556</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="2">
+        <v>726</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="2">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3096,13 +3520,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3134,7 +3558,7 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
@@ -3146,13 +3570,13 @@
         <v>1000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2">
         <v>1000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>63</v>
@@ -3178,7 +3602,7 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>48</v>
@@ -3190,13 +3614,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2">
         <v>9070</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>63</v>
@@ -3222,7 +3646,7 @@
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>48</v>
@@ -3234,13 +3658,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2">
         <v>1960</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>63</v>
@@ -3266,7 +3690,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
@@ -3278,13 +3702,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G5" s="2">
         <v>10380</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>63</v>
@@ -3310,7 +3734,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>48</v>
@@ -3322,13 +3746,13 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G6" s="2">
         <v>2000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>63</v>
@@ -3354,7 +3778,7 @@
         <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>48</v>
@@ -3366,13 +3790,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G7" s="2">
         <v>67470</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>63</v>
@@ -3398,7 +3822,7 @@
         <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>48</v>
@@ -3410,13 +3834,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G8" s="2">
         <v>525000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>63</v>
@@ -3442,7 +3866,7 @@
         <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>48</v>
@@ -3454,13 +3878,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G9" s="2">
         <v>57340</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>63</v>
@@ -3486,7 +3910,7 @@
         <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>48</v>
@@ -3498,13 +3922,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G10" s="2">
         <v>620</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>63</v>
@@ -3530,7 +3954,7 @@
         <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
@@ -3542,13 +3966,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G11" s="2">
         <v>50000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>63</v>
@@ -3574,7 +3998,7 @@
         <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>48</v>
@@ -3586,13 +4010,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G12" s="2">
         <v>140260</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>63</v>
@@ -3618,7 +4042,7 @@
         <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>48</v>
@@ -3630,13 +4054,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>63</v>
@@ -3662,7 +4086,7 @@
         <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>48</v>
@@ -3674,13 +4098,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G14" s="2">
         <v>89870</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>63</v>
@@ -3706,7 +4130,7 @@
         <v>118</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>48</v>
@@ -3718,13 +4142,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G15" s="2">
         <v>104540</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>63</v>
@@ -3750,7 +4174,7 @@
         <v>119</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>48</v>
@@ -3762,13 +4186,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G16" s="2">
         <v>27830</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>63</v>
@@ -3794,7 +4218,7 @@
         <v>120</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>48</v>
@@ -3806,13 +4230,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G17" s="2">
         <v>191540</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>63</v>
@@ -3838,7 +4262,7 @@
         <v>121</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>48</v>
@@ -3850,13 +4274,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G18" s="2">
         <v>50000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>63</v>
@@ -3882,7 +4306,7 @@
         <v>122</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>47</v>
@@ -3894,13 +4318,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G19" s="2">
         <v>214000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>63</v>
@@ -3926,7 +4350,7 @@
         <v>123</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>47</v>
@@ -3938,13 +4362,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G20" s="2">
         <v>206000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>63</v>
@@ -3970,7 +4394,7 @@
         <v>124</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>47</v>
@@ -3982,13 +4406,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G21" s="2">
         <v>127810</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>63</v>
@@ -4014,7 +4438,7 @@
         <v>125</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>47</v>
@@ -4026,13 +4450,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G22" s="2">
         <v>266200</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>63</v>
@@ -4058,7 +4482,7 @@
         <v>126</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>47</v>
@@ -4070,13 +4494,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G23" s="2">
         <v>1090</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>63</v>
@@ -4102,7 +4526,7 @@
         <v>127</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>47</v>
@@ -4114,13 +4538,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G24" s="2">
         <v>263520</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>63</v>
@@ -4146,25 +4570,25 @@
         <v>128</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G25" s="2">
         <v>532660</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>63</v>
@@ -4190,7 +4614,7 @@
         <v>129</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>47</v>
@@ -4202,13 +4626,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G26" s="2">
         <v>465540</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>63</v>
@@ -4234,7 +4658,7 @@
         <v>130</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>47</v>
@@ -4246,13 +4670,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G27" s="2">
         <v>263830</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>63</v>
@@ -4278,7 +4702,7 @@
         <v>132</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>47</v>
@@ -4290,13 +4714,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G28" s="2">
         <v>12110</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>63</v>
@@ -4322,7 +4746,7 @@
         <v>133</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>47</v>
@@ -4334,13 +4758,13 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G29" s="2">
         <v>24250</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>63</v>
@@ -4366,7 +4790,7 @@
         <v>134</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>47</v>
@@ -4378,13 +4802,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G30" s="2">
         <v>200000</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>63</v>
@@ -4410,7 +4834,7 @@
         <v>135</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>47</v>
@@ -4422,13 +4846,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G31" s="2">
         <v>121000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>63</v>
@@ -4454,7 +4878,7 @@
         <v>136</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>47</v>
@@ -4466,13 +4890,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G32" s="2">
         <v>470000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>63</v>
@@ -4498,7 +4922,7 @@
         <v>137</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>47</v>
@@ -4510,13 +4934,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>63</v>
@@ -4552,13 +4976,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1">
         <v>1668.05</v>
@@ -4567,7 +4991,7 @@
         <v>150.82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1">
         <v>7320481</v>
@@ -4578,13 +5002,13 @@
         <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>1668.05</v>
@@ -4593,7 +5017,7 @@
         <v>150.82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H2" s="2">
         <v>7320481</v>
@@ -4604,13 +5028,13 @@
         <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>1355.484</v>
@@ -4619,7 +5043,7 @@
         <v>10.61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H3" s="2">
         <v>418507</v>
@@ -4630,13 +5054,13 @@
         <v>149</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
         <v>659.81</v>
@@ -4645,7 +5069,7 @@
         <v>31.33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H4" s="2">
         <v>601550</v>
@@ -4656,13 +5080,13 @@
         <v>150</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2">
         <v>271.67</v>
@@ -4671,7 +5095,7 @@
         <v>64.71</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H5" s="2">
         <v>511571</v>
@@ -4682,13 +5106,13 @@
         <v>151</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2">
         <v>57.808</v>
@@ -4697,7 +5121,7 @@
         <v>504.5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H6" s="2">
         <v>848676</v>
@@ -4708,13 +5132,13 @@
         <v>152</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2">
         <v>2357.26</v>
@@ -4723,7 +5147,7 @@
         <v>51.82</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H7" s="2">
         <v>3554659</v>
@@ -4734,13 +5158,13 @@
         <v>153</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2">
         <v>1194.32</v>
@@ -4749,7 +5173,7 @@
         <v>29.44</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H8" s="2">
         <v>1023179</v>
@@ -4760,13 +5184,13 @@
         <v>154</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2">
         <v>84.56</v>
@@ -4775,7 +5199,7 @@
         <v>64.71</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H9" s="2">
         <v>159231</v>
@@ -4796,17 +5220,17 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -4817,20 +5241,20 @@
         <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4838,28 +5262,28 @@
         <v>161</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4877,22 +5301,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1">
         <v>1276169</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4900,22 +5324,22 @@
         <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E2" s="2">
         <v>1276169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4936,10 +5360,10 @@
         <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1">
         <v>375000</v>
@@ -4948,7 +5372,7 @@
         <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4959,10 +5383,10 @@
         <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E2" s="2">
         <v>375000</v>
@@ -4971,7 +5395,7 @@
         <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4982,19 +5406,19 @@
         <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E3" s="2">
         <v>5901610</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
@@ -12,16 +12,15 @@
     <sheet name="存款" sheetId="3" r:id="rId3"/>
     <sheet name="股票" sheetId="4" r:id="rId4"/>
     <sheet name="基金受益憑證" sheetId="5" r:id="rId5"/>
-    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
-    <sheet name="債務" sheetId="7" r:id="rId7"/>
-    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
+    <sheet name="債務" sheetId="6" r:id="rId6"/>
+    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="161">
   <si>
     <t>name</t>
   </si>
@@ -449,6 +448,9 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>貝萊德美元儲備基金</t>
   </si>
   <si>
@@ -470,40 +472,7 @@
     <t>貝萊德新興市場基金</t>
   </si>
   <si>
-    <t>(九）珠寶</t>
-  </si>
-  <si>
-    <t>古董字畫及其他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>r額</t>
-  </si>
-  <si>
-    <t>新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
+    <t>fund</t>
   </si>
   <si>
     <t>抵押貸款</t>
@@ -4968,41 +4937,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1668.05</v>
-      </c>
-      <c r="F1" s="1">
-        <v>150.82</v>
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="1">
-        <v>7320481</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
@@ -5022,13 +5012,34 @@
       <c r="H2" s="2">
         <v>7320481</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="2">
+        <v>726</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>48</v>
@@ -5048,13 +5059,34 @@
       <c r="H3" s="2">
         <v>418507</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="2">
+        <v>726</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>149</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>48</v>
@@ -5074,13 +5106,34 @@
       <c r="H4" s="2">
         <v>601550</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="2">
+        <v>726</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>150</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
@@ -5100,13 +5153,34 @@
       <c r="H5" s="2">
         <v>511571</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="2">
+        <v>726</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>151</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>48</v>
@@ -5126,13 +5200,34 @@
       <c r="H6" s="2">
         <v>848676</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="2">
+        <v>726</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>152</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>48</v>
@@ -5152,13 +5247,34 @@
       <c r="H7" s="2">
         <v>3554659</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="2">
+        <v>726</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>153</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>48</v>
@@ -5178,13 +5294,34 @@
       <c r="H8" s="2">
         <v>1023179</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="2">
+        <v>726</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>154</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>48</v>
@@ -5203,6 +5340,27 @@
       </c>
       <c r="H9" s="2">
         <v>159231</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="2">
+        <v>726</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="2">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5211,87 +5369,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>160</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>161</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -5301,22 +5378,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1">
         <v>1276169</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5324,22 +5401,22 @@
         <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E2" s="2">
         <v>1276169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5347,7 +5424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -5360,10 +5437,10 @@
         <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1">
         <v>375000</v>
@@ -5372,7 +5449,7 @@
         <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5383,10 +5460,10 @@
         <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E2" s="2">
         <v>375000</v>
@@ -5395,7 +5472,7 @@
         <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5406,19 +5483,19 @@
         <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2">
         <v>5901610</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
+++ b/legislator/property/output/normal/徐少萍_2012-04-30_財產申報表_tmpf37d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="167">
   <si>
     <t>name</t>
   </si>
@@ -475,6 +475,12 @@
     <t>fund</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>抵押貸款</t>
   </si>
   <si>
@@ -487,22 +493,34 @@
     <t>設定抵押</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>大春報關股份有限公司</t>
   </si>
   <si>
+    <t>鎮洲裝卸股份有限公司</t>
+  </si>
+  <si>
     <t>基隆市仁愛區孝三路101號3樓</t>
   </si>
   <si>
+    <t>基隆市中正區港通里中正路12號7樓</t>
+  </si>
+  <si>
+    <t>86年</t>
+  </si>
+  <si>
     <t>投資</t>
   </si>
   <si>
-    <t>鎮洲裝卸股份有限公司</t>
-  </si>
-  <si>
-    <t>基隆市中正區港通里中正路12號7樓</t>
-  </si>
-  <si>
-    <t>86年</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -5370,53 +5388,95 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1276169</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2">
         <v>1276169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2">
+        <v>726</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="2">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5426,33 +5486,54 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="1">
-        <v>375000</v>
+        <v>159</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>185</v>
       </c>
@@ -5460,10 +5541,10 @@
         <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E2" s="2">
         <v>375000</v>
@@ -5472,10 +5553,31 @@
         <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>165</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2">
+        <v>726</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>186</v>
       </c>
@@ -5483,19 +5585,40 @@
         <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E3" s="2">
         <v>5901610</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2">
+        <v>726</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="2">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
